--- a/doc/IMOX - COTA Applet v02.09 - Internal Testing Protocol - v01.01.xlsx
+++ b/doc/IMOX - COTA Applet v02.09 - Internal Testing Protocol - v01.01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carlos\DigitalReef\GitHub\applet-code-amx-debug\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carlos\DigitalReef\GitHub\applet-code-entel-chile\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884291B0-9DB8-483F-ACEB-F414C2D269FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64EF8FD-F197-4F12-BAB9-34E5E2B447FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>tc={97D8A9F2-BF47-4D4E-8EFA-E4C6BEE9B5BC}</author>
   </authors>
   <commentList>
-    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{11619A42-3897-464E-8700-90F6715C88B4}">
+    <comment ref="J30" authorId="0" shapeId="0" xr:uid="{11619A42-3897-464E-8700-90F6715C88B4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +52,7 @@
     Return fValidateTPDA comentado</t>
       </text>
     </comment>
-    <comment ref="J34" authorId="1" shapeId="0" xr:uid="{F92A9B68-B9EF-451A-8E81-C547628F24C8}">
+    <comment ref="J35" authorId="1" shapeId="0" xr:uid="{F92A9B68-B9EF-451A-8E81-C547628F24C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -61,7 +61,7 @@
 Esperé 3 minutos aprox, y el applet respondió, ahora si con el valor en 00 05</t>
       </text>
     </comment>
-    <comment ref="J39" authorId="2" shapeId="0" xr:uid="{683453C0-937F-402E-9C60-99AFF6F09A58}">
+    <comment ref="J40" authorId="2" shapeId="0" xr:uid="{683453C0-937F-402E-9C60-99AFF6F09A58}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J40" authorId="3" shapeId="0" xr:uid="{97D8A9F2-BF47-4D4E-8EFA-E4C6BEE9B5BC}">
+    <comment ref="J41" authorId="3" shapeId="0" xr:uid="{97D8A9F2-BF47-4D4E-8EFA-E4C6BEE9B5BC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -99,7 +99,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="237">
   <si>
     <t>General considerations:</t>
   </si>
@@ -1133,9 +1133,6 @@
   <si>
     <t xml:space="preserve">Display Text Retries
 </t>
-  </si>
-  <si>
-    <t>F2/F4 supported</t>
   </si>
   <si>
     <t>01</t>
@@ -1186,12 +1183,6 @@
 </t>
   </si>
   <si>
-    <t>0x01: The F2/F4 commands to change URL are supported
-Any other values: F2/F4 commands not supported
-If this Byte is not defined: commands are not supported
-activating this flag affects the F4 command.</t>
-  </si>
-  <si>
     <t>SMS APK Notification</t>
   </si>
   <si>
@@ -1225,15 +1216,6 @@
   </si>
   <si>
     <t>Testing Results:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smpp data: "F4 A1 68 74 74 70 73 3A 2F 2F 77 77 77 2E 67 6F 6F 67 6C 65 2E 63 6F 6D 2E 61 72 2F" with Originating Address.
- tag: F4
- Length: 26
- Text: https://www.google.com.ar/
-It should be checked that the new URL is being called taking into account that the command is enabled because of install for install.
-It should be checked that the new URL is being called taking into account that the command is enabled because of install for install.
-</t>
   </si>
   <si>
     <t>The Server receives SMS with data "31".
@@ -1483,6 +1465,315 @@
 The maximum value is 0x7F FF =&gt; 32.767 in decimal =&gt; 16.383 minutes =&gt; 273 hours =&gt; 11 days.</t>
   </si>
   <si>
+    <t>TPDA SMPP Validation</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Source TPDA SMPP validation.
+E1: Not validated.
+Any other value such as 0x00, yes it is validated.
+By default it is validated.</t>
+  </si>
+  <si>
+    <t>The applet sends to the server: LOCI + MAX Counters (LOCI and APK) + COTA applet Version</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; This command requests LOCI + MAX Counters + COTA applet Version</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00 02 =&gt; This command requests LOCI + MAX Counters + COTA applet Version.
+It is also set the new value for Status Command Counter for reporting LOCI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00 00 =&gt; This command requests LOCI + MAX Counters + COTA applet Version.
+It is also set the new value for Status Command Counter for reporting LOCI.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; This command requests LOCI + MAX Counters + COTA applet Version</t>
+    </r>
+  </si>
+  <si>
+    <t>Smspp data: "E0" with Originating Address.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00 02 =&gt; This command sets the Status Command to requests LOCI for APK.
+It is also sent SMS with the same data as E0.</t>
+    </r>
+  </si>
+  <si>
+    <t>Smspp data: "E0 00 02" with Originating Address.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 00 00 =&gt; This command sets the Status Command to requests LOCI for APK.
+It is also sent SMS with the same data as E0.</t>
+    </r>
+  </si>
+  <si>
+    <t>Smspp data: "E0 00 00" with Originating Address.</t>
+  </si>
+  <si>
+    <t>The applet sends to the server: LOCI + MAX Counters (LOCI and APK) + COTA applet Version. This only happens as response for the SMPP.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =&gt; Disable SMPP TPDA Validation.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "E0 00 00".
+3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
+4. Verify that after 2 or more Status Command no LOCI is requested to the Termnal.</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "E0 00 02".
+3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
+4. Verify that after 2 or more Status Command the LOCI is requested to the Terminal, but no SMS is being sent..</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "E0".
+3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FE 00 02".
+3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
+4. Verify that after 2 or more Status Command no meesage is being sent.</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FC".
+3. Applet sends to the seerver the data with: IMEI + IMEI+LaunchBrowser Supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA applet Version</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FC 00 00".
+3. Applet change the value for status command executed for APK notification.
+4. Applet sends to the server the data with changes: IMEI + IMEI+LaunchBrowser Supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA applet Version</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FC 00".
+3. Applet change the value for APK APDU VARIABLE
+4. Applet sends to the server the data with changes: IMEI + IMEI+LaunchBrowser Supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA applet Version</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FD FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF".
+3. Applet change the SHA-1 Value
+4. Applet sends the new SHA-1 registered to the server
+5. Verify with the APK that the CarrierPrivileges are not enabled.</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FD DA 5C 07 3B A0 77 FD 86 B7 CB 42 34 33 1D E5 FC C4 49 F4 60".
+3. Applet change the SHA-1 Value
+4. Applet sends the new SHA-1 registered to the server
+5. Verify with the APK that the CarrierPrivileges are enabled.</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FD".
+3. Applet sends the SHA-1 Value.</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FE".
+3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "FE 00 02".
+3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
+4. Verify that after 2 or more Status Command the same data is sent to the Server.</t>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "E1".
+3. Applet sends to the server the data with: TPDA Not Validated + TPDA + COTA applet Version.
+4. Verify that sending any other command such as "FB" for IMEI data with other TPDA as default, the SMS is sent.</t>
+  </si>
+  <si>
+    <t>Smspp data: "E1" with Originating Address.
+Smspp data "FB" with different Originating Address such as 60105.</t>
+  </si>
+  <si>
+    <t>The applet sends to the server: TPDA Not validated + TPDA + COTA applet Version. This only happens as response for the SMPP with "E1".
+The applet sends to the server: IMEI + COTA applet Version. This only happens as response for the SMPP with "FB" with different originating address.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + new TPDA =&gt; Enable SMPP TPDA Validation with new value, for example: 60105.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile
+2. Server sends the command "E1" + new TPDA.
+3. Applet sends to the server the data with: TPDA Validated + TPDA + COTA applet Version.
+4. Verify that sending any other command such as "FB" for IMEI data with other TPDA such as 60104, the SMPP is rejected.</t>
+  </si>
+  <si>
+    <t>Smspp data: "E1 05 05 81 06 01 F4"  with Originating Address 60105.
+Smspp data "FB" with different Originating Address such as 60104.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The applet sends to the server: TPDA validated + TPDA + COTA applet Version. This only happens as response for the SMPP with "E1" + TPDA.
+When the applet receives the command "FB" with different TPDA as expected, the SMPP is rejected. </t>
+  </si>
+  <si>
+    <t>This byte defines whether the applet starts Timer when the IMEI has changed or not.
+If it is changed the Mobile, new IMEI, it can be started the initial Timer so that the default PopUp is showed.
+0x31 = Yes, changed IMEI starts Timer for PopUp.
+Any other value does nothing, for example, 0x30.</t>
+  </si>
+  <si>
+    <t>Change IMEI PopUpn</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">05 81 06 01 F4 </t>
     </r>
@@ -1564,7 +1855,7 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 4E C0 00 00 00 00 00</t>
+      <t xml:space="preserve"> 4E C0 00 00 00 00 00 31</t>
     </r>
   </si>
   <si>
@@ -1639,26 +1930,54 @@
         <rFont val="Courier New"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 00 06 00 06 00 00 00</t>
-    </r>
-  </si>
-  <si>
-    <t>TPDA SMPP Validation</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>Source TPDA SMPP validation.
-E1: Not validated.
-Any other value such as 0x00, yes it is validated.
-By default it is validated.</t>
-  </si>
-  <si>
-    <t>The applet sends to the server: LOCI + MAX Counters (LOCI and APK) + COTA applet Version</t>
+      <t xml:space="preserve"> 00 06 00 06 00 00 00 31</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PopUp reappears when the IMSI has changed.
+Condition:
+Applet is installed with activating PopUp when IMEI has changed.
+1. Enter the sim card to the phone while turned off
+2. Turn on your phone
+3. Wait for at least 4 Status Commands (2 min approx)
+4. Confirm that an SMS is sent to the shortcode with the IMEI of the terminal or the PopUp depending on the configuration.
+5. Switch off Mobile.
+7. Enter the sim card in another phone, different as point 1.
+8. Turn on your phone
+9. Wait for at least 4 Status Commands (2 min approx)
+8. Confirm that an SMS is sent to the shortcode with the new IMEI.
+9. Wait for the time defined for the Timer, for example, 24 hrs. for production or 2 minutes for testing.
+10. View the PopUp with the Welcome message.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- The server receives sms with the new IMEI value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PopUp NOT reappears when the IMSI has changed.
+Condition:
+Applet is installed without activating PopUp when IMEI has changed.
+1. Enter the sim card to the phone while turned off
+2. Turn on your phone
+3. Wait for at least 4 Status Commands (2 min approx)
+4. Confirm that an SMS is sent to the shortcode with the IMEI of the terminal or the PopUp depending on the configuration.
+5. Switch off Mobile.
+7. Enter the sim card in another phone, different as point 1.
+8. Turn on your phone
+9. Wait for at least 4 Status Commands (2 min approx)
+8. Confirm that an SMS is sent to the shortcode with the new IMEI.
+9. Wait for the time defined for the Timer, for example, 24 hrs. for production or 2 minutes for testing.
+10. Verify that no PopUp with the Welcome message is showed.
+</t>
+  </si>
+  <si>
+    <t>0x01: The F2/F4 commands to change URL are supported
+Any other values: F2/F4 commands not supported for changing URL.
+F4 command always works, but depending on this byte, the URL can be updated or not.</t>
+  </si>
+  <si>
+    <t>Updated URL</t>
   </si>
   <si>
     <r>
@@ -1669,7 +1988,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>FE</t>
+      <t>F4</t>
     </r>
     <r>
       <rPr>
@@ -1678,269 +1997,38 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> =&gt; This command requests LOCI + MAX Counters + COTA applet Version</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 00 02 =&gt; This command requests LOCI + MAX Counters + COTA applet Version.
-It is also set the new value for Status Command Counter for reporting LOCI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>FE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 00 00 =&gt; This command requests LOCI + MAX Counters + COTA applet Version.
-It is also set the new value for Status Command Counter for reporting LOCI.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; This command requests LOCI + MAX Counters + COTA applet Version</t>
-    </r>
-  </si>
-  <si>
-    <t>Smspp data: "E0" with Originating Address.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 00 02 =&gt; This command sets the Status Command to requests LOCI for APK.
-It is also sent SMS with the same data as E0.</t>
-    </r>
-  </si>
-  <si>
-    <t>Smspp data: "E0 00 02" with Originating Address.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 00 00 =&gt; This command sets the Status Command to requests LOCI for APK.
-It is also sent SMS with the same data as E0.</t>
-    </r>
-  </si>
-  <si>
-    <t>Smspp data: "E0 00 00" with Originating Address.</t>
-  </si>
-  <si>
-    <t>The applet sends to the server: LOCI + MAX Counters (LOCI and APK) + COTA applet Version. This only happens as response for the SMPP.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> =&gt; Disable SMPP TPDA Validation.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "E0 00 00".
-3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
-4. Verify that after 2 or more Status Command no LOCI is requested to the Termnal.</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "E0 00 02".
-3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
-4. Verify that after 2 or more Status Command the LOCI is requested to the Terminal, but no SMS is being sent..</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "E0".
-3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FE 00 02".
-3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
-4. Verify that after 2 or more Status Command no meesage is being sent.</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FC".
-3. Applet sends to the seerver the data with: IMEI + IMEI+LaunchBrowser Supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA applet Version</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FC 00 00".
-3. Applet change the value for status command executed for APK notification.
-4. Applet sends to the server the data with changes: IMEI + IMEI+LaunchBrowser Supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA applet Version</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FC 00".
-3. Applet change the value for APK APDU VARIABLE
-4. Applet sends to the server the data with changes: IMEI + IMEI+LaunchBrowser Supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA applet Version</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FD FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF FF".
-3. Applet change the SHA-1 Value
-4. Applet sends the new SHA-1 registered to the server
-5. Verify with the APK that the CarrierPrivileges are not enabled.</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FD DA 5C 07 3B A0 77 FD 86 B7 CB 42 34 33 1D E5 FC C4 49 F4 60".
-3. Applet change the SHA-1 Value
-4. Applet sends the new SHA-1 registered to the server
-5. Verify with the APK that the CarrierPrivileges are enabled.</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FD".
-3. Applet sends the SHA-1 Value.</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FE".
-3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "FE 00 02".
-3. Applet sends to the server the data with: LOCI + MAX Counters + COTA applet Version.
-4. Verify that after 2 or more Status Command the same data is sent to the Server.</t>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "E1".
-3. Applet sends to the server the data with: TPDA Not Validated + TPDA + COTA applet Version.
-4. Verify that sending any other command such as "FB" for IMEI data with other TPDA as default, the SMS is sent.</t>
-  </si>
-  <si>
-    <t>Smspp data: "E1" with Originating Address.
-Smspp data "FB" with different Originating Address such as 60105.</t>
-  </si>
-  <si>
-    <t>The applet sends to the server: TPDA Not validated + TPDA + COTA applet Version. This only happens as response for the SMPP with "E1".
-The applet sends to the server: IMEI + COTA applet Version. This only happens as response for the SMPP with "FB" with different originating address.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>E1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + new TPDA =&gt; Enable SMPP TPDA Validation with new value, for example: 60105.</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Switch on the Mobile
-2. Server sends the command "E1" + new TPDA.
-3. Applet sends to the server the data with: TPDA Validated + TPDA + COTA applet Version.
-4. Verify that sending any other command such as "FB" for IMEI data with other TPDA such as 60104, the SMPP is rejected.</t>
-  </si>
-  <si>
-    <t>Smspp data: "E1 05 05 81 06 01 F4"  with Originating Address 60105.
-Smspp data "FB" with different Originating Address such as 60104.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The applet sends to the server: TPDA validated + TPDA + COTA applet Version. This only happens as response for the SMPP with "E1" + TPDA.
-When the applet receives the command "FB" with different TPDA as expected, the SMPP is rejected. </t>
+      <t xml:space="preserve"> =&gt; Check that update URL is not possible, only call default URL..
+The applet must be installed with the Update URL byte with 0x00, for example, anything different than 0x01.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Switch on the Mobile connected to the Network.
+2. The Server sends "F4" &amp; "https://www.google.com.ar” by SMPP for updating Applet's URL.
+3. Applet sends SMS with "31" to the Server.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smpp data: "F4 1F 68 74 74 70 73 3A 2F 2F 77 77 77 2E 77 61 73 68 69 6E 67 74 6F 6E 70 6F 73 74 2E 63 6F 6D 2F" with Originating Address.
+ tag: F4
+ Length: 1F
+ Text: https://www.washingtonpost.com/
+It should be checked that the new URL is being called taking into account that the command is enabled because of install for install.
+It should be checked that the new URL is being called taking into account that the command is enabled because of install for install.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smpp data: "F4 19 68 74 74 70 73 3A 2F 2F 77 77 77 2E 67 6F 6F 67 6C 65 2E 63 6F 6D 2E 61 72" with Originating Address.
+ tag: F4
+ Length: 19
+ Text: https://www.google.com.ar/
+It should be checked that the default/previous URL is being called, not the new one.
+It should be checked that the new URL is being called taking into account that the command is enabled because of install for install.
+</t>
+  </si>
+  <si>
+    <t>The Server receives SMS with data "31".
+URL opened in the Terminal browser.
+It should be checked that the default/previous URL is being called. 
+The objetive is to check that the SMPP with URL update is not available in the applet because of install for install byte enabled.</t>
   </si>
 </sst>
 </file>
@@ -2480,7 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2730,6 +2818,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2890,7 +2981,103 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -3241,26 +3428,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DA3EEBA-D52F-4A67-AA62-05DF5E359C93}" name="Tabla2" displayName="Tabla2" ref="B8:G17" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DA3EEBA-D52F-4A67-AA62-05DF5E359C93}" name="Tabla2" displayName="Tabla2" ref="B8:G17" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="B8:G17" xr:uid="{72B5EDB9-8F39-4EF2-B1B5-C873EF1D4C7E}"/>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{65E26FAB-D283-432D-B060-FD097E858F85}" name="Name" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{65E26FAB-D283-432D-B060-FD097E858F85}" name="Name" dataDxfId="16"/>
     <tableColumn id="1" xr3:uid="{DE809C7A-B049-4787-A724-6ABC44557904}" name="Mandatory"/>
     <tableColumn id="2" xr3:uid="{4C04C3FA-C0E4-47C7-AFE8-325763056105}" name="Bytes"/>
     <tableColumn id="3" xr3:uid="{56F52752-C843-4313-AE66-6BA7D72D9535}" name="Value for production"/>
     <tableColumn id="4" xr3:uid="{9423E23F-F433-4686-AC47-3B34109D2B75}" name="Value for Testing"/>
-    <tableColumn id="5" xr3:uid="{028DB9B3-BD51-4707-9FED-4F66B0FA9AA2}" name="Details" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{028DB9B3-BD51-4707-9FED-4F66B0FA9AA2}" name="Details" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F429E014-3753-4245-818B-9C731EC0F010}" name="Tabla4" displayName="Tabla4" ref="I2:J6" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F429E014-3753-4245-818B-9C731EC0F010}" name="Tabla4" displayName="Tabla4" ref="I2:J6" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="I2:J6" xr:uid="{59B69DA9-15D6-4C80-9BD4-370798D090BF}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{FA426C54-1475-40F9-BB8F-8F1B25E213E7}" name="Colour" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{D700A0B9-3C50-4204-9CF6-769615F25419}" name="Value" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{FA426C54-1475-40F9-BB8F-8F1B25E213E7}" name="Colour" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{D700A0B9-3C50-4204-9CF6-769615F25419}" name="Value" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3464,14 +3651,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="J29" dT="2022-04-21T16:09:25.40" personId="{CF7DB52E-2650-4861-95D4-5FC932A04AF8}" id="{11619A42-3897-464E-8700-90F6715C88B4}">
+  <threadedComment ref="J30" dT="2022-04-21T16:09:25.40" personId="{CF7DB52E-2650-4861-95D4-5FC932A04AF8}" id="{11619A42-3897-464E-8700-90F6715C88B4}">
     <text>Return fValidateTPDA comentado</text>
   </threadedComment>
-  <threadedComment ref="J34" dT="2022-04-21T01:56:16.47" personId="{CF7DB52E-2650-4861-95D4-5FC932A04AF8}" id="{F92A9B68-B9EF-451A-8E81-C547628F24C8}">
+  <threadedComment ref="J35" dT="2022-04-21T01:56:16.47" personId="{CF7DB52E-2650-4861-95D4-5FC932A04AF8}" id="{F92A9B68-B9EF-451A-8E81-C547628F24C8}">
     <text>Envié el FC 00 04, pero el applet respondió nuevamente con los status command executed for APK Notification en 00 00.
 Esperé 3 minutos aprox, y el applet respondió, ahora si con el valor en 00 05</text>
   </threadedComment>
-  <threadedComment ref="J40" dT="2022-04-21T16:32:10.83" personId="{CF7DB52E-2650-4861-95D4-5FC932A04AF8}" id="{97D8A9F2-BF47-4D4E-8EFA-E4C6BEE9B5BC}">
+  <threadedComment ref="J41" dT="2022-04-21T16:32:10.83" personId="{CF7DB52E-2650-4861-95D4-5FC932A04AF8}" id="{97D8A9F2-BF47-4D4E-8EFA-E4C6BEE9B5BC}">
     <text>5 minutos despues del ultimo SMS que envió el applet con el IMEI + Launch Browser supported + APK APDU Variable + STATUS COMMANDS EXECUTED FOR APK NOTIFICATION + COTA, sucedió lo sig:
 -Se extrajo la SIM aprox 3 veces, sin desinstalar el applet, luego se insertó, consulté información con el comando FC, y los STATUS COMMANDS EXECUTED FOR APK NOTIFICATION, los devolvió en 00 01.</text>
   </threadedComment>
@@ -3485,8 +3672,8 @@
   </sheetPr>
   <dimension ref="B1:AC1001"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" topLeftCell="B13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -3504,43 +3691,43 @@
     <col min="15" max="29" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" ht="7.2" customHeight="1"/>
-    <row r="2" spans="2:29" ht="18" customHeight="1">
-      <c r="B2" s="88" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-    </row>
-    <row r="3" spans="2:29" ht="25.2" customHeight="1">
-      <c r="C3" s="89"/>
-      <c r="D3" s="90" t="s">
+    <row r="1" spans="2:14" ht="7.2" customHeight="1"/>
+    <row r="2" spans="2:14" ht="18" customHeight="1">
+      <c r="B2" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+    </row>
+    <row r="3" spans="2:14" ht="25.2" customHeight="1">
+      <c r="C3" s="90"/>
+      <c r="D3" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="92" t="s">
+      <c r="E3" s="93" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="I3" s="93" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="I3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="94"/>
-    </row>
-    <row r="4" spans="2:29" ht="40.200000000000003" customHeight="1">
-      <c r="C4" s="89"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="J3" s="95"/>
+    </row>
+    <row r="4" spans="2:14" ht="40.200000000000003" customHeight="1">
+      <c r="C4" s="90"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="I4" s="29" t="s">
         <v>3</v>
       </c>
@@ -3548,8 +3735,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:29" ht="19.5" customHeight="1">
-      <c r="C5" s="89"/>
+    <row r="5" spans="2:14" ht="19.5" customHeight="1">
+      <c r="C5" s="90"/>
       <c r="D5" s="38" t="s">
         <v>5</v>
       </c>
@@ -3565,16 +3752,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:29" ht="19.5" customHeight="1">
-      <c r="C6" s="89"/>
+    <row r="6" spans="2:14" ht="19.5" customHeight="1">
+      <c r="C6" s="90"/>
       <c r="D6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
       <c r="I6" s="27" t="s">
         <v>11</v>
       </c>
@@ -3582,16 +3769,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:29" ht="23.4" customHeight="1">
-      <c r="C7" s="89"/>
+    <row r="7" spans="2:14" ht="23.4" customHeight="1">
+      <c r="C7" s="90"/>
       <c r="D7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="97" t="s">
+      <c r="E7" s="98" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="I7" s="28" t="s">
         <v>15</v>
       </c>
@@ -3599,10 +3786,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:29" ht="19.95" customHeight="1">
+    <row r="8" spans="2:14" ht="19.95" customHeight="1">
       <c r="E8" s="25"/>
     </row>
-    <row r="9" spans="2:29" ht="16.5" customHeight="1">
+    <row r="9" spans="2:14" ht="16.5" customHeight="1">
       <c r="B9" s="35" t="s">
         <v>17</v>
       </c>
@@ -3615,46 +3802,46 @@
       <c r="E9" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
-      <c r="M9" s="100"/>
-      <c r="N9" s="100"/>
-    </row>
-    <row r="10" spans="2:29" ht="48" customHeight="1">
+      <c r="F9" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+    </row>
+    <row r="10" spans="2:14" ht="48" customHeight="1">
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
       <c r="D10" s="49"/>
       <c r="E10" s="50"/>
-      <c r="F10" s="105" t="s">
+      <c r="F10" s="106" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="107"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="51" t="s">
-        <v>131</v>
-      </c>
       <c r="K10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" ht="264.75" customHeight="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="264.75" customHeight="1">
       <c r="B11" s="24">
         <v>1</v>
       </c>
@@ -3667,136 +3854,118 @@
       <c r="E11" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
     </row>
-    <row r="12" spans="2:29" ht="321.60000000000002" customHeight="1">
+    <row r="12" spans="2:14" ht="321.60000000000002" customHeight="1">
       <c r="B12" s="24">
         <v>2</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+        <v>132</v>
+      </c>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
     </row>
-    <row r="13" spans="2:29" ht="75" customHeight="1">
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="2:29" ht="84" customHeight="1">
-      <c r="B14" s="30"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
+    <row r="13" spans="2:14" ht="333.6" customHeight="1">
+      <c r="B13" s="24">
+        <v>3</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="104"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+    </row>
+    <row r="14" spans="2:14" ht="358.8" customHeight="1">
+      <c r="B14" s="24">
+        <v>4</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" s="36"/>
+      <c r="E14" s="37" t="s">
+        <v>228</v>
+      </c>
       <c r="F14" s="104"/>
       <c r="G14" s="104"/>
       <c r="H14" s="104"/>
       <c r="I14" s="104"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="2:29" ht="114.6" customHeight="1">
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" ht="114.6" customHeight="1">
       <c r="B15" s="30"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-    </row>
-    <row r="16" spans="2:29" ht="138.6" customHeight="1">
+      <c r="F15" s="105"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+    </row>
+    <row r="16" spans="2:14" ht="138.6" customHeight="1">
       <c r="B16" s="30"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="101"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
     </row>
     <row r="17" spans="2:29" ht="138.6" customHeight="1">
       <c r="B17" s="30"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
     </row>
     <row r="18" spans="2:29" ht="91.2" customHeight="1">
       <c r="B18" s="30"/>
       <c r="C18" s="31"/>
       <c r="D18" s="34"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -3823,10 +3992,10 @@
       <c r="C19" s="4"/>
       <c r="D19" s="34"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
     </row>
     <row r="20" spans="2:29" ht="174" customHeight="1">
       <c r="B20" s="3"/>
@@ -5413,7 +5582,35 @@
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="E7:G7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F11:I19">
+  <conditionalFormatting sqref="F11:I12 F15:I19">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
+      <formula>$I$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+      <formula>$I$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+      <formula>$I$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13:I13">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>$I$7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>$I$6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>$I$5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:I14">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$I$7</formula>
     </cfRule>
@@ -5443,11 +5640,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63B7403-5959-4A10-952B-4C9D9DA2F55B}">
-  <dimension ref="B1:AC1001"/>
+  <dimension ref="B1:AC1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="10" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -5466,44 +5663,44 @@
   <sheetData>
     <row r="1" spans="2:29" ht="7.2" customHeight="1"/>
     <row r="2" spans="2:29" ht="18" customHeight="1">
-      <c r="B2" s="110" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="112"/>
+      <c r="B2" s="111" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="113"/>
     </row>
     <row r="3" spans="2:29" ht="25.2" customHeight="1">
       <c r="B3" s="74"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="115" t="s">
+      <c r="C3" s="114"/>
+      <c r="D3" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
       <c r="H3" s="66"/>
-      <c r="I3" s="93" t="s">
+      <c r="I3" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="117"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" spans="2:29" ht="40.200000000000003" customHeight="1">
       <c r="B4" s="74"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="95" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="96" t="s">
+        <v>141</v>
+      </c>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
       <c r="H4" s="66"/>
       <c r="I4" s="29" t="s">
         <v>3</v>
@@ -5514,7 +5711,7 @@
     </row>
     <row r="5" spans="2:29" ht="19.5" customHeight="1">
       <c r="B5" s="74"/>
-      <c r="C5" s="113"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="67" t="s">
         <v>5</v>
       </c>
@@ -5533,15 +5730,15 @@
     </row>
     <row r="6" spans="2:29" ht="19.5" customHeight="1">
       <c r="B6" s="74"/>
-      <c r="C6" s="113"/>
+      <c r="C6" s="114"/>
       <c r="D6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="66"/>
       <c r="I6" s="27" t="s">
         <v>11</v>
@@ -5552,15 +5749,15 @@
     </row>
     <row r="7" spans="2:29" ht="23.4" customHeight="1">
       <c r="B7" s="76"/>
-      <c r="C7" s="114"/>
+      <c r="C7" s="115"/>
       <c r="D7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="71"/>
       <c r="I7" s="73" t="s">
         <v>15</v>
@@ -5583,45 +5780,45 @@
         <v>19</v>
       </c>
       <c r="E9" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="56" t="s">
         <v>144</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>146</v>
       </c>
       <c r="G9" s="57"/>
       <c r="H9" s="57"/>
       <c r="I9" s="57"/>
-      <c r="J9" s="130" t="s">
-        <v>147</v>
-      </c>
-      <c r="K9" s="130"/>
-      <c r="L9" s="130"/>
-      <c r="M9" s="130"/>
-      <c r="N9" s="130"/>
+      <c r="J9" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
     </row>
     <row r="10" spans="2:29" ht="51" customHeight="1">
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="124"/>
       <c r="J10" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="K10" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="51" t="s">
-        <v>131</v>
-      </c>
       <c r="L10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N10" s="51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:29" ht="264.75" customHeight="1">
@@ -5637,12 +5834,12 @@
       <c r="E11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="125"/>
-      <c r="H11" s="125"/>
-      <c r="I11" s="125"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="78"/>
       <c r="K11" s="65"/>
       <c r="L11" s="65"/>
@@ -5651,7 +5848,7 @@
     </row>
     <row r="12" spans="2:29" ht="321.60000000000002" customHeight="1">
       <c r="B12" s="60">
-        <f t="shared" ref="B12:B40" si="0">B11+1</f>
+        <f t="shared" ref="B12:B41" si="0">B11+1</f>
         <v>2</v>
       </c>
       <c r="C12" s="61" t="s">
@@ -5663,12 +5860,12 @@
       <c r="E12" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="121" t="s">
+      <c r="F12" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="78"/>
       <c r="K12" s="65"/>
       <c r="L12" s="65"/>
@@ -5689,12 +5886,12 @@
       <c r="E13" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="78"/>
       <c r="K13" s="65"/>
       <c r="L13" s="65"/>
@@ -5730,12 +5927,12 @@
       <c r="E14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="122" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
       <c r="J14" s="78"/>
       <c r="K14" s="65"/>
       <c r="L14" s="65"/>
@@ -5766,17 +5963,17 @@
         <v>37</v>
       </c>
       <c r="D15" s="59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E15" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="107" t="s">
+      <c r="F15" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="119"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
       <c r="J15" s="78"/>
       <c r="K15" s="65"/>
       <c r="L15" s="65"/>
@@ -5797,12 +5994,12 @@
       <c r="E16" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="121" t="s">
+      <c r="F16" s="122" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="119"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
       <c r="J16" s="78"/>
       <c r="K16" s="65"/>
       <c r="L16" s="65"/>
@@ -5823,12 +6020,12 @@
       <c r="E17" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="121" t="s">
+      <c r="F17" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="119"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="78"/>
       <c r="K17" s="65"/>
       <c r="L17" s="65"/>
@@ -5864,12 +6061,12 @@
       <c r="E18" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="107" t="s">
+      <c r="F18" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="119"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
       <c r="J18" s="79"/>
       <c r="K18" s="65"/>
       <c r="L18" s="65"/>
@@ -5890,12 +6087,12 @@
       <c r="E19" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
       <c r="J19" s="79"/>
       <c r="K19" s="65"/>
       <c r="L19" s="65"/>
@@ -5916,12 +6113,12 @@
       <c r="E20" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="129" t="s">
+      <c r="F20" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="129"/>
       <c r="J20" s="79"/>
       <c r="K20" s="65"/>
       <c r="L20" s="65"/>
@@ -5929,7 +6126,7 @@
       <c r="N20" s="65"/>
     </row>
     <row r="21" spans="2:29" ht="173.4" customHeight="1">
-      <c r="B21" s="58">
+      <c r="B21" s="60">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -5940,557 +6137,557 @@
         <v>57</v>
       </c>
       <c r="E21" s="63" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="126" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="127" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="129"/>
       <c r="J21" s="79"/>
       <c r="K21" s="65"/>
       <c r="L21" s="65"/>
       <c r="M21" s="65"/>
       <c r="N21" s="65"/>
     </row>
-    <row r="22" spans="2:29" ht="233.4" customHeight="1">
-      <c r="B22" s="58">
+    <row r="22" spans="2:29" ht="173.4" customHeight="1">
+      <c r="B22" s="60">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="128"/>
+        <v>232</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="127" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="129"/>
       <c r="J22" s="79"/>
       <c r="K22" s="65"/>
       <c r="L22" s="65"/>
       <c r="M22" s="65"/>
       <c r="N22" s="65"/>
     </row>
-    <row r="23" spans="2:29" ht="224.25" customHeight="1">
-      <c r="B23" s="58">
+    <row r="23" spans="2:29" ht="233.4" customHeight="1">
+      <c r="B23" s="60">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C23" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="129" t="s">
-        <v>149</v>
-      </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="128"/>
+      <c r="C23" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="127" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="129"/>
       <c r="J23" s="79"/>
       <c r="K23" s="65"/>
       <c r="L23" s="65"/>
       <c r="M23" s="65"/>
       <c r="N23" s="65"/>
     </row>
-    <row r="24" spans="2:29" ht="225" customHeight="1">
+    <row r="24" spans="2:29" ht="224.25" customHeight="1">
       <c r="B24" s="58">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D24" s="61" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E24" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="129" t="s">
-        <v>150</v>
-      </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="128"/>
+        <v>60</v>
+      </c>
+      <c r="F24" s="130" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="129"/>
       <c r="J24" s="79"/>
       <c r="K24" s="65"/>
       <c r="L24" s="65"/>
       <c r="M24" s="65"/>
       <c r="N24" s="65"/>
     </row>
-    <row r="25" spans="2:29" ht="80.400000000000006" customHeight="1">
+    <row r="25" spans="2:29" ht="225" customHeight="1">
       <c r="B25" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C25" s="55" t="s">
-        <v>151</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="126" t="s">
-        <v>152</v>
-      </c>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="128"/>
+      <c r="C25" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="130" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="129"/>
       <c r="J25" s="79"/>
       <c r="K25" s="65"/>
       <c r="L25" s="65"/>
       <c r="M25" s="65"/>
       <c r="N25" s="65"/>
     </row>
-    <row r="26" spans="2:29" ht="199.95" customHeight="1">
+    <row r="26" spans="2:29" ht="80.400000000000006" customHeight="1">
       <c r="B26" s="58">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C26" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="129" t="s">
-        <v>72</v>
-      </c>
-      <c r="G26" s="127"/>
-      <c r="H26" s="127"/>
-      <c r="I26" s="128"/>
+      <c r="C26" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="127" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="129"/>
       <c r="J26" s="79"/>
       <c r="K26" s="65"/>
       <c r="L26" s="65"/>
       <c r="M26" s="65"/>
       <c r="N26" s="65"/>
     </row>
-    <row r="27" spans="2:29" ht="184.95" customHeight="1">
+    <row r="27" spans="2:29" ht="199.95" customHeight="1">
       <c r="B27" s="58">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C27" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="126" t="s">
+      <c r="C27" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="64" t="s">
+        <v>71</v>
+      </c>
+      <c r="F27" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="127"/>
-      <c r="H27" s="127"/>
-      <c r="I27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="129"/>
       <c r="J27" s="79"/>
       <c r="K27" s="65"/>
       <c r="L27" s="65"/>
       <c r="M27" s="65"/>
       <c r="N27" s="65"/>
     </row>
-    <row r="28" spans="2:29" ht="289.95" customHeight="1">
+    <row r="28" spans="2:29" ht="184.95" customHeight="1">
       <c r="B28" s="58">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C28" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="F28" s="129" t="s">
+      <c r="C28" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="127"/>
-      <c r="H28" s="127"/>
-      <c r="I28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="129"/>
       <c r="J28" s="79"/>
       <c r="K28" s="65"/>
       <c r="L28" s="65"/>
       <c r="M28" s="65"/>
       <c r="N28" s="65"/>
     </row>
-    <row r="29" spans="2:29" ht="148.19999999999999" customHeight="1">
+    <row r="29" spans="2:29" ht="289.95" customHeight="1">
       <c r="B29" s="58">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C29" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D29" s="59" t="s">
-        <v>154</v>
-      </c>
-      <c r="E29" s="63" t="s">
-        <v>153</v>
-      </c>
-      <c r="F29" s="126" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="127"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="128"/>
+      <c r="C29" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="130" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="129"/>
       <c r="J29" s="79"/>
       <c r="K29" s="65"/>
       <c r="L29" s="65"/>
       <c r="M29" s="65"/>
       <c r="N29" s="65"/>
     </row>
-    <row r="30" spans="2:29" ht="409.2" customHeight="1">
+    <row r="30" spans="2:29" ht="148.19999999999999" customHeight="1">
       <c r="B30" s="58">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C30" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="62" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="62" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="121" t="s">
-        <v>82</v>
-      </c>
-      <c r="G30" s="108"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
+      <c r="C30" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="59" t="s">
+        <v>151</v>
+      </c>
+      <c r="E30" s="63" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="127" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="129"/>
       <c r="J30" s="79"/>
       <c r="K30" s="65"/>
       <c r="L30" s="65"/>
       <c r="M30" s="65"/>
       <c r="N30" s="65"/>
     </row>
-    <row r="31" spans="2:29" ht="171.75" customHeight="1">
+    <row r="31" spans="2:29" ht="409.2" customHeight="1">
       <c r="B31" s="58">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C31" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="E31" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="F31" s="107" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="80"/>
+      <c r="C31" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="62" t="s">
+        <v>152</v>
+      </c>
+      <c r="E31" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="122" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="79"/>
       <c r="K31" s="65"/>
       <c r="L31" s="65"/>
       <c r="M31" s="65"/>
       <c r="N31" s="65"/>
     </row>
-    <row r="32" spans="2:29" ht="83.4" customHeight="1">
+    <row r="32" spans="2:29" ht="171.75" customHeight="1">
       <c r="B32" s="58">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C32" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="62" t="s">
-        <v>160</v>
-      </c>
-      <c r="F32" s="121" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="109"/>
+      <c r="C32" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="F32" s="108" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
       <c r="J32" s="80"/>
       <c r="K32" s="65"/>
       <c r="L32" s="65"/>
       <c r="M32" s="65"/>
       <c r="N32" s="65"/>
     </row>
-    <row r="33" spans="2:14" ht="118.95" customHeight="1">
+    <row r="33" spans="2:14" ht="83.4" customHeight="1">
       <c r="B33" s="58">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C33" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="E33" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" s="107" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="109"/>
+      <c r="C33" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="110"/>
       <c r="J33" s="80"/>
       <c r="K33" s="65"/>
       <c r="L33" s="65"/>
       <c r="M33" s="65"/>
       <c r="N33" s="65"/>
     </row>
-    <row r="34" spans="2:14" ht="166.95" customHeight="1">
+    <row r="34" spans="2:14" ht="118.95" customHeight="1">
       <c r="B34" s="58">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C34" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="61" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="109"/>
+      <c r="C34" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="108" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="110"/>
       <c r="J34" s="80"/>
       <c r="K34" s="65"/>
       <c r="L34" s="65"/>
       <c r="M34" s="65"/>
       <c r="N34" s="65"/>
     </row>
-    <row r="35" spans="2:14" ht="161.4" customHeight="1">
+    <row r="35" spans="2:14" ht="166.95" customHeight="1">
       <c r="B35" s="58">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C35" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="107" t="s">
-        <v>167</v>
-      </c>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
+      <c r="C35" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="61" t="s">
+        <v>209</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>160</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="110"/>
       <c r="J35" s="80"/>
       <c r="K35" s="65"/>
       <c r="L35" s="65"/>
       <c r="M35" s="65"/>
       <c r="N35" s="65"/>
     </row>
-    <row r="36" spans="2:14" ht="154.19999999999999" customHeight="1">
+    <row r="36" spans="2:14" ht="161.4" customHeight="1">
       <c r="B36" s="58">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>168</v>
-      </c>
-      <c r="F36" s="121" t="s">
-        <v>169</v>
-      </c>
-      <c r="G36" s="108"/>
-      <c r="H36" s="108"/>
-      <c r="I36" s="109"/>
+      <c r="C36" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="E36" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="108" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="110"/>
       <c r="J36" s="80"/>
       <c r="K36" s="65"/>
       <c r="L36" s="65"/>
       <c r="M36" s="65"/>
       <c r="N36" s="65"/>
     </row>
-    <row r="37" spans="2:14" ht="153.6" customHeight="1">
+    <row r="37" spans="2:14" ht="154.19999999999999" customHeight="1">
       <c r="B37" s="58">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C37" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>217</v>
-      </c>
-      <c r="E37" s="59" t="s">
-        <v>170</v>
-      </c>
-      <c r="F37" s="107" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" s="108"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="109"/>
+      <c r="C37" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="E37" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="F37" s="122" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" s="109"/>
+      <c r="H37" s="109"/>
+      <c r="I37" s="110"/>
       <c r="J37" s="80"/>
       <c r="K37" s="65"/>
       <c r="L37" s="65"/>
       <c r="M37" s="65"/>
       <c r="N37" s="65"/>
     </row>
-    <row r="38" spans="2:14" ht="67.2" customHeight="1">
+    <row r="38" spans="2:14" ht="153.6" customHeight="1">
       <c r="B38" s="58">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C38" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="61" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>172</v>
-      </c>
-      <c r="F38" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="108"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="109"/>
+      <c r="C38" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38" s="108" t="s">
+        <v>168</v>
+      </c>
+      <c r="G38" s="109"/>
+      <c r="H38" s="109"/>
+      <c r="I38" s="110"/>
       <c r="J38" s="80"/>
       <c r="K38" s="65"/>
       <c r="L38" s="65"/>
       <c r="M38" s="65"/>
       <c r="N38" s="65"/>
     </row>
-    <row r="39" spans="2:14" ht="194.4" customHeight="1">
+    <row r="39" spans="2:14" ht="67.2" customHeight="1">
       <c r="B39" s="58">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C39" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="E39" s="59"/>
-      <c r="F39" s="107" t="s">
-        <v>174</v>
-      </c>
-      <c r="G39" s="108"/>
-      <c r="H39" s="108"/>
-      <c r="I39" s="109"/>
+      <c r="C39" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="122" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="109"/>
+      <c r="H39" s="109"/>
+      <c r="I39" s="110"/>
       <c r="J39" s="80"/>
       <c r="K39" s="65"/>
       <c r="L39" s="65"/>
       <c r="M39" s="65"/>
       <c r="N39" s="65"/>
     </row>
-    <row r="40" spans="2:14" ht="198" customHeight="1">
+    <row r="40" spans="2:14" ht="194.4" customHeight="1">
       <c r="B40" s="58">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="E40" s="64"/>
-      <c r="F40" s="121" t="s">
-        <v>177</v>
-      </c>
-      <c r="G40" s="108"/>
-      <c r="H40" s="108"/>
-      <c r="I40" s="109"/>
+        <v>170</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="108" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="109"/>
+      <c r="H40" s="109"/>
+      <c r="I40" s="110"/>
       <c r="J40" s="80"/>
       <c r="K40" s="65"/>
       <c r="L40" s="65"/>
       <c r="M40" s="65"/>
       <c r="N40" s="65"/>
     </row>
-    <row r="41" spans="2:14" ht="118.95" customHeight="1">
+    <row r="41" spans="2:14" ht="198" customHeight="1">
       <c r="B41" s="58">
-        <f t="shared" ref="B41:B46" si="1">B40+1</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>219</v>
-      </c>
-      <c r="E41" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="G41" s="108"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="109"/>
+        <v>176</v>
+      </c>
+      <c r="E41" s="64"/>
+      <c r="F41" s="122" t="s">
+        <v>174</v>
+      </c>
+      <c r="G41" s="109"/>
+      <c r="H41" s="109"/>
+      <c r="I41" s="110"/>
       <c r="J41" s="80"/>
       <c r="K41" s="65"/>
       <c r="L41" s="65"/>
       <c r="M41" s="65"/>
       <c r="N41" s="65"/>
     </row>
-    <row r="42" spans="2:14" ht="120" customHeight="1">
+    <row r="42" spans="2:14" ht="118.95" customHeight="1">
       <c r="B42" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B42:B47" si="1">B41+1</f>
         <v>32</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D42" s="55" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="E42" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="F42" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="G42" s="108"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="65"/>
+        <v>177</v>
+      </c>
+      <c r="F42" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G42" s="109"/>
+      <c r="H42" s="109"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="80"/>
       <c r="K42" s="65"/>
       <c r="L42" s="65"/>
       <c r="M42" s="65"/>
@@ -6502,98 +6699,98 @@
         <v>33</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D43" s="55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E43" s="59" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="107" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="108"/>
-      <c r="H43" s="108"/>
-      <c r="I43" s="109"/>
+        <v>183</v>
+      </c>
+      <c r="F43" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G43" s="109"/>
+      <c r="H43" s="109"/>
+      <c r="I43" s="110"/>
       <c r="J43" s="65"/>
       <c r="K43" s="65"/>
       <c r="L43" s="65"/>
       <c r="M43" s="65"/>
       <c r="N43" s="65"/>
     </row>
-    <row r="44" spans="2:14" ht="96.6" customHeight="1">
+    <row r="44" spans="2:14" ht="120" customHeight="1">
       <c r="B44" s="58">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D44" s="55" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E44" s="59" t="s">
-        <v>202</v>
-      </c>
-      <c r="F44" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="109"/>
-      <c r="J44" s="80"/>
+        <v>184</v>
+      </c>
+      <c r="F44" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="65"/>
       <c r="K44" s="65"/>
       <c r="L44" s="65"/>
       <c r="M44" s="65"/>
       <c r="N44" s="65"/>
     </row>
-    <row r="45" spans="2:14" ht="153.6" customHeight="1">
+    <row r="45" spans="2:14" ht="96.6" customHeight="1">
       <c r="B45" s="58">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D45" s="55" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E45" s="59" t="s">
-        <v>204</v>
-      </c>
-      <c r="F45" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="109"/>
-      <c r="J45" s="65"/>
+        <v>197</v>
+      </c>
+      <c r="F45" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="80"/>
       <c r="K45" s="65"/>
       <c r="L45" s="65"/>
       <c r="M45" s="65"/>
       <c r="N45" s="65"/>
     </row>
-    <row r="46" spans="2:14" ht="142.19999999999999" customHeight="1">
+    <row r="46" spans="2:14" ht="153.6" customHeight="1">
       <c r="B46" s="58">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C46" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D46" s="55" t="s">
-        <v>209</v>
-      </c>
       <c r="E46" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="F46" s="107" t="s">
-        <v>207</v>
-      </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="109"/>
+        <v>199</v>
+      </c>
+      <c r="F46" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="110"/>
       <c r="J46" s="65"/>
       <c r="K46" s="65"/>
       <c r="L46" s="65"/>
@@ -6602,23 +6799,24 @@
     </row>
     <row r="47" spans="2:14" ht="142.19999999999999" customHeight="1">
       <c r="B47" s="58">
-        <v>38</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D47" s="55" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="E47" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="F47" s="107" t="s">
-        <v>223</v>
-      </c>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="109"/>
+        <v>201</v>
+      </c>
+      <c r="F47" s="108" t="s">
+        <v>202</v>
+      </c>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="110"/>
       <c r="J47" s="65"/>
       <c r="K47" s="65"/>
       <c r="L47" s="65"/>
@@ -6627,90 +6825,111 @@
     </row>
     <row r="48" spans="2:14" ht="142.19999999999999" customHeight="1">
       <c r="B48" s="58">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C48" s="55" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D48" s="55" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E48" s="59" t="s">
-        <v>226</v>
-      </c>
-      <c r="F48" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="109"/>
+        <v>217</v>
+      </c>
+      <c r="F48" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="110"/>
       <c r="J48" s="65"/>
       <c r="K48" s="65"/>
       <c r="L48" s="65"/>
       <c r="M48" s="65"/>
       <c r="N48" s="65"/>
     </row>
-    <row r="49" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" ht="15.75" customHeight="1">
+    <row r="49" spans="2:14" ht="142.19999999999999" customHeight="1">
+      <c r="B49" s="58">
+        <v>39</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="59" t="s">
+        <v>221</v>
+      </c>
+      <c r="F49" s="108" t="s">
+        <v>222</v>
+      </c>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
+      <c r="M49" s="65"/>
+      <c r="N49" s="65"/>
+    </row>
+    <row r="50" spans="2:14" ht="15.75" customHeight="1">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:3" ht="15.75" customHeight="1">
+    <row r="51" spans="2:14" ht="15.75" customHeight="1">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:3" ht="15.75" customHeight="1">
+    <row r="52" spans="2:14" ht="15.75" customHeight="1">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" ht="15.75" customHeight="1">
+    <row r="53" spans="2:14" ht="15.75" customHeight="1">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" ht="15.75" customHeight="1">
+    <row r="54" spans="2:14" ht="15.75" customHeight="1">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="2:3" ht="15.75" customHeight="1">
+    <row r="55" spans="2:14" ht="15.75" customHeight="1">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="2:3" ht="15.75" customHeight="1">
+    <row r="56" spans="2:14" ht="15.75" customHeight="1">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="2:3" ht="15.75" customHeight="1">
+    <row r="57" spans="2:14" ht="15.75" customHeight="1">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="2:3" ht="15.75" customHeight="1">
+    <row r="58" spans="2:14" ht="15.75" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:3" ht="15.75" customHeight="1">
+    <row r="59" spans="2:14" ht="15.75" customHeight="1">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:3" ht="15.75" customHeight="1">
+    <row r="60" spans="2:14" ht="15.75" customHeight="1">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:3" ht="15.75" customHeight="1">
+    <row r="61" spans="2:14" ht="15.75" customHeight="1">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" ht="15.75" customHeight="1">
+    <row r="62" spans="2:14" ht="15.75" customHeight="1">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="2:3" ht="15.75" customHeight="1">
+    <row r="63" spans="2:14" ht="15.75" customHeight="1">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="2:3" ht="15.75" customHeight="1">
+    <row r="64" spans="2:14" ht="15.75" customHeight="1">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
@@ -7302,10 +7521,7 @@
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
     </row>
-    <row r="212" spans="2:3" ht="15.75" customHeight="1">
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-    </row>
+    <row r="212" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="213" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="214" spans="2:3" ht="15.75" customHeight="1"/>
     <row r="215" spans="2:3" ht="15.75" customHeight="1"/>
@@ -8094,39 +8310,39 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
-    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="F39:I39"/>
+  <mergeCells count="49">
     <mergeCell ref="F40:I40"/>
+    <mergeCell ref="F41:I41"/>
     <mergeCell ref="J9:N9"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F33:I33"/>
     <mergeCell ref="F34:I34"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F37:I37"/>
     <mergeCell ref="F38:I38"/>
-    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F39:I39"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:I33"/>
     <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F24:I24"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F22:I22"/>
     <mergeCell ref="F42:I42"/>
     <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="D3:D4"/>
@@ -8140,11 +8356,11 @@
     <mergeCell ref="F18:I18"/>
     <mergeCell ref="F17:I17"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F44:I44"/>
     <mergeCell ref="F45:I45"/>
     <mergeCell ref="F46:I46"/>
     <mergeCell ref="F47:I47"/>
     <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{948272F2-7A9F-4C57-8187-5FA6950F10D5}"/>
@@ -8158,13 +8374,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE91E9C-FB31-4E5E-B5D1-1424CE76D6E4}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="10" ySplit="8" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="8" topLeftCell="K15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -8175,7 +8391,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="71.77734375" customWidth="1"/>
+    <col min="7" max="7" width="82.21875" customWidth="1"/>
     <col min="8" max="8" width="3.109375" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" customWidth="1"/>
     <col min="10" max="10" width="41.44140625" customWidth="1"/>
@@ -8183,14 +8399,14 @@
   <sheetData>
     <row r="1" spans="1:10" ht="6.6" customHeight="1"/>
     <row r="2" spans="1:10" ht="27" customHeight="1">
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="132" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
       <c r="I2" s="22" t="s">
         <v>94</v>
       </c>
@@ -8199,52 +8415,52 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.6" customHeight="1">
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
       <c r="I3" s="7"/>
       <c r="J3" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="25.5" customHeight="1">
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="136" t="s">
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="136"/>
-      <c r="F4" s="137" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="138" t="s">
+        <v>225</v>
+      </c>
+      <c r="G4" s="138"/>
       <c r="I4" s="9"/>
       <c r="J4" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="133" t="s">
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="135" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="135"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="136" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" s="136"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.2" customHeight="1">
-      <c r="B6" s="89"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
       <c r="I6" s="12"/>
       <c r="J6" s="8" t="s">
         <v>101</v>
@@ -8285,10 +8501,10 @@
         <v>110</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G9" s="15" t="s">
         <v>111</v>
@@ -8391,7 +8607,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>109</v>
@@ -8423,13 +8639,13 @@
         <v>1</v>
       </c>
       <c r="E15" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="54.6" customHeight="1">
@@ -8437,7 +8653,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>128</v>
+        <v>231</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>109</v>
@@ -8446,13 +8662,13 @@
         <v>1</v>
       </c>
       <c r="E16" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F16" s="84" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="228" customHeight="1">
@@ -8460,7 +8676,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C17" s="53" t="s">
         <v>109</v>
@@ -8469,13 +8685,13 @@
         <v>2</v>
       </c>
       <c r="E17" s="84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F17" s="84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="228" customHeight="1">
@@ -8483,7 +8699,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>109</v>
@@ -8492,13 +8708,13 @@
         <v>2</v>
       </c>
       <c r="E18" s="84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F18" s="84" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="228" customHeight="1">
@@ -8506,7 +8722,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="81" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C19" s="82" t="s">
         <v>109</v>
@@ -8515,13 +8731,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="84" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F19" s="84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G19" s="81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="52.8">
@@ -8529,7 +8745,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="81" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C20" s="82" t="s">
         <v>109</v>
@@ -8538,13 +8754,36 @@
         <v>1</v>
       </c>
       <c r="E20" s="84" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="F20" s="84" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G20" s="81" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="66">
+      <c r="A21" s="5">
+        <v>13</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="D21" s="83">
+        <v>1</v>
+      </c>
+      <c r="E21" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="81" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
